--- a/datapages/2002.xlsx
+++ b/datapages/2002.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviscarmichael/Documents/marchmadness/datapages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0918411D-61CE-DF4E-802E-1639255F00B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E7C4D-FBD4-454B-82F9-75FAF9DC5438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{30A128E3-CD03-0D41-858A-9360F03448C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="461">
   <si>
     <t>Rk</t>
   </si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>Savannah St.</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1477,8 +1480,7 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,19 +1795,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20D6638-FD16-4843-BC0E-3427D5A539CD}">
-  <dimension ref="A1:U328"/>
+  <dimension ref="A1:V328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="A336" activeCellId="7" sqref="A42:U43 A84:U85 A126:U127 A168:U169 A210:U211 A252:U253 A294:U295 A336:U337"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1814,54 +1816,58 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U1" s="4"/>
+      <c r="V1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
+      <c r="D2" t="str">
+        <f>TEXT(V2, "mm-dd")</f>
+        <v>31-4</v>
       </c>
       <c r="E2" s="2">
         <v>34.19</v>
@@ -1914,19 +1920,23 @@
       <c r="U2" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">TEXT(V3, "mm-dd")</f>
+        <v>31-4</v>
       </c>
       <c r="E3" s="2">
         <v>30.19</v>
@@ -1979,19 +1989,23 @@
       <c r="U3" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>32-4</v>
       </c>
       <c r="E4" s="2">
         <v>29.25</v>
@@ -2044,19 +2058,23 @@
       <c r="U4" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>33-4</v>
       </c>
       <c r="E5" s="2">
         <v>28.99</v>
@@ -2109,19 +2127,23 @@
       <c r="U5" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>31-5</v>
       </c>
       <c r="E6" s="2">
         <v>26.04</v>
@@ -2174,19 +2196,23 @@
       <c r="U6" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>25-12</v>
       </c>
       <c r="E7" s="2">
         <v>24.8</v>
@@ -2239,19 +2265,23 @@
       <c r="U7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>22-9</v>
       </c>
       <c r="E8" s="2">
         <v>24.72</v>
@@ -2304,19 +2334,23 @@
       <c r="U8" s="2">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>26-9</v>
       </c>
       <c r="E9" s="2">
         <v>23.21</v>
@@ -2369,19 +2403,23 @@
       <c r="U9" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>26-9</v>
       </c>
       <c r="E10" s="2">
         <v>22.97</v>
@@ -2434,19 +2472,23 @@
       <c r="U10" s="2">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>22-10</v>
       </c>
       <c r="E11" s="2">
         <v>22.21</v>
@@ -2499,19 +2541,23 @@
       <c r="U11" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>26-7</v>
       </c>
       <c r="E12" s="2">
         <v>21.47</v>
@@ -2564,19 +2610,23 @@
       <c r="U12" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>22-10</v>
       </c>
       <c r="E13" s="2">
         <v>20.67</v>
@@ -2629,19 +2679,23 @@
       <c r="U13" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>24-10</v>
       </c>
       <c r="E14" s="2">
         <v>20.54</v>
@@ -2694,19 +2748,23 @@
       <c r="U14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>29-6</v>
       </c>
       <c r="E15" s="2">
         <v>20.39</v>
@@ -2759,19 +2817,23 @@
       <c r="U15" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>20-10</v>
       </c>
       <c r="E16" s="2">
         <v>20.32</v>
@@ -2824,19 +2886,23 @@
       <c r="U16" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>29-6</v>
       </c>
       <c r="E17" s="2">
         <v>19.940000000000001</v>
@@ -2889,19 +2955,23 @@
       <c r="U17" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>24-8</v>
       </c>
       <c r="E18" s="2">
         <v>19.760000000000002</v>
@@ -2954,19 +3024,23 @@
       <c r="U18" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>27-7</v>
       </c>
       <c r="E19" s="2">
         <v>19.36</v>
@@ -3019,19 +3093,23 @@
       <c r="U19" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>21-11</v>
       </c>
       <c r="E20" s="2">
         <v>19.27</v>
@@ -3084,19 +3162,23 @@
       <c r="U20" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>21-15</v>
       </c>
       <c r="E21" s="2">
         <v>19.18</v>
@@ -3149,19 +3231,23 @@
       <c r="U21" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>23-11</v>
       </c>
       <c r="E22" s="2">
         <v>19.149999999999999</v>
@@ -3214,19 +3300,23 @@
       <c r="U22" s="2">
         <v>283</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>27-8</v>
       </c>
       <c r="E23" s="2">
         <v>18.73</v>
@@ -3279,19 +3369,23 @@
       <c r="U23" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>26-6</v>
       </c>
       <c r="E24" s="2">
         <v>18.600000000000001</v>
@@ -3344,19 +3438,23 @@
       <c r="U24" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>28-4</v>
       </c>
       <c r="E25" s="2">
         <v>18.510000000000002</v>
@@ -3409,19 +3507,23 @@
       <c r="U25" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>22-9</v>
       </c>
       <c r="E26" s="2">
         <v>18.440000000000001</v>
@@ -3474,19 +3576,23 @@
       <c r="U26" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>27-8</v>
       </c>
       <c r="E27" s="2">
         <v>18.25</v>
@@ -3539,19 +3645,23 @@
       <c r="U27" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>22-12</v>
       </c>
       <c r="E28" s="2">
         <v>17.690000000000001</v>
@@ -3604,19 +3714,23 @@
       <c r="U28" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>26-6</v>
       </c>
       <c r="E29" s="2">
         <v>17.63</v>
@@ -3669,19 +3783,23 @@
       <c r="U29" s="2">
         <v>268</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>24-12</v>
       </c>
       <c r="E30" s="2">
         <v>17.489999999999998</v>
@@ -3734,19 +3852,23 @@
       <c r="U30" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>74</v>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>21-13</v>
       </c>
       <c r="E31" s="2">
         <v>17.350000000000001</v>
@@ -3799,19 +3921,23 @@
       <c r="U31" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>76</v>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>23-9</v>
       </c>
       <c r="E32" s="2">
         <v>17.239999999999998</v>
@@ -3864,19 +3990,23 @@
       <c r="U32" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>78</v>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>19-12</v>
       </c>
       <c r="E33" s="2">
         <v>16.86</v>
@@ -3929,19 +4059,23 @@
       <c r="U33" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>80</v>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>27-9</v>
       </c>
       <c r="E34" s="2">
         <v>16.690000000000001</v>
@@ -3994,19 +4128,23 @@
       <c r="U34" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>19-11</v>
       </c>
       <c r="E35" s="2">
         <v>16.68</v>
@@ -4059,19 +4197,23 @@
       <c r="U35" s="2">
         <v>292</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>84</v>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>21-12</v>
       </c>
       <c r="E36" s="2">
         <v>16.34</v>
@@ -4124,19 +4266,23 @@
       <c r="U36" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>18-11</v>
       </c>
       <c r="E37" s="2">
         <v>16.13</v>
@@ -4189,19 +4335,23 @@
       <c r="U37" s="2">
         <v>323</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>23-9</v>
       </c>
       <c r="E38" s="2">
         <v>16.03</v>
@@ -4254,19 +4404,23 @@
       <c r="U38" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>76</v>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>23-9</v>
       </c>
       <c r="E39" s="2">
         <v>15.8</v>
@@ -4319,19 +4473,23 @@
       <c r="U39" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>24-8</v>
       </c>
       <c r="E40" s="2">
         <v>15.77</v>
@@ -4384,19 +4542,23 @@
       <c r="U40" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>91</v>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>18-12</v>
       </c>
       <c r="E41" s="2">
         <v>15.73</v>
@@ -4449,19 +4611,23 @@
       <c r="U41" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>36</v>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>26-7</v>
       </c>
       <c r="E42" s="2">
         <v>15.59</v>
@@ -4514,19 +4680,23 @@
       <c r="U42" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>21-11</v>
       </c>
       <c r="E43" s="2">
         <v>15.53</v>
@@ -4579,19 +4749,23 @@
       <c r="U43" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>96</v>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>18-13</v>
       </c>
       <c r="E44" s="2">
         <v>14.54</v>
@@ -4644,19 +4818,23 @@
       <c r="U44" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>99</v>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>26-4</v>
       </c>
       <c r="E45" s="2">
         <v>14.51</v>
@@ -4709,19 +4887,23 @@
       <c r="U45" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>102</v>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>19-9</v>
       </c>
       <c r="E46" s="2">
         <v>14.08</v>
@@ -4774,19 +4956,23 @@
       <c r="U46" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>104</v>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>19-16</v>
       </c>
       <c r="E47" s="2">
         <v>13.66</v>
@@ -4839,19 +5025,23 @@
       <c r="U47" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>48</v>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>24-8</v>
       </c>
       <c r="E48" s="2">
         <v>13.63</v>
@@ -4904,19 +5094,23 @@
       <c r="U48" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>108</v>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>19-15</v>
       </c>
       <c r="E49" s="2">
         <v>13.57</v>
@@ -4969,19 +5163,23 @@
       <c r="U49" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>111</v>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>28-8</v>
       </c>
       <c r="E50" s="2">
         <v>13.45</v>
@@ -5034,19 +5232,23 @@
       <c r="U50" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>96</v>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>18-13</v>
       </c>
       <c r="E51" s="2">
         <v>13.22</v>
@@ -5099,19 +5301,23 @@
       <c r="U51" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>61</v>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>26-6</v>
       </c>
       <c r="E52" s="2">
         <v>13.15</v>
@@ -5164,19 +5370,23 @@
       <c r="U52" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>115</v>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>19-13</v>
       </c>
       <c r="E53" s="2">
         <v>13.14</v>
@@ -5229,19 +5439,23 @@
       <c r="U53" s="2">
         <v>266</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>117</v>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>17-12</v>
       </c>
       <c r="E54" s="2">
         <v>12.92</v>
@@ -5294,19 +5508,23 @@
       <c r="U54" s="2">
         <v>251</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>119</v>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>15-16</v>
       </c>
       <c r="E55" s="2">
         <v>12.67</v>
@@ -5359,19 +5577,23 @@
       <c r="U55" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>121</v>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>23-12</v>
       </c>
       <c r="E56" s="2">
         <v>12.66</v>
@@ -5424,19 +5646,23 @@
       <c r="U56" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>123</v>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>23-13</v>
       </c>
       <c r="E57" s="2">
         <v>12.61</v>
@@ -5489,19 +5715,23 @@
       <c r="U57" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>125</v>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>14-15</v>
       </c>
       <c r="E58" s="2">
         <v>12.56</v>
@@ -5554,19 +5784,23 @@
       <c r="U58" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>128</v>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>25-7</v>
       </c>
       <c r="E59" s="2">
         <v>12.23</v>
@@ -5619,19 +5853,23 @@
       <c r="U59" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>76</v>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>23-9</v>
       </c>
       <c r="E60" s="2">
         <v>11.82</v>
@@ -5684,19 +5922,23 @@
       <c r="U60" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>76</v>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>23-9</v>
       </c>
       <c r="E61" s="2">
         <v>11.76</v>
@@ -5749,19 +5991,23 @@
       <c r="U61" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>115</v>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>19-13</v>
       </c>
       <c r="E62" s="2">
         <v>11.74</v>
@@ -5814,19 +6060,23 @@
       <c r="U62" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>133</v>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>21-9</v>
       </c>
       <c r="E63" s="2">
         <v>11.72</v>
@@ -5879,19 +6129,23 @@
       <c r="U63" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>117</v>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>17-12</v>
       </c>
       <c r="E64" s="2">
         <v>11.55</v>
@@ -5944,19 +6198,23 @@
       <c r="U64" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>44</v>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>20-10</v>
       </c>
       <c r="E65" s="2">
         <v>11.43</v>
@@ -6009,19 +6267,23 @@
       <c r="U65" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>138</v>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>23-10</v>
       </c>
       <c r="E66" s="2">
         <v>11.32</v>
@@ -6074,19 +6336,23 @@
       <c r="U66" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>140</v>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">TEXT(V67, "mm-dd")</f>
+        <v>18-15</v>
       </c>
       <c r="E67" s="2">
         <v>11.1</v>
@@ -6139,19 +6405,23 @@
       <c r="U67" s="2">
         <v>321</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>28</v>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>22-9</v>
       </c>
       <c r="E68" s="2">
         <v>11.01</v>
@@ -6204,19 +6474,23 @@
       <c r="U68" s="2">
         <v>282</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>78</v>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>19-12</v>
       </c>
       <c r="E69" s="2">
         <v>10.81</v>
@@ -6269,19 +6543,23 @@
       <c r="U69" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>125</v>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>14-15</v>
       </c>
       <c r="E70" s="2">
         <v>10.54</v>
@@ -6334,19 +6612,23 @@
       <c r="U70" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>119</v>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>15-16</v>
       </c>
       <c r="E71" s="2">
         <v>10.5</v>
@@ -6399,19 +6681,23 @@
       <c r="U71" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>146</v>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>20-12</v>
       </c>
       <c r="E72" s="2">
         <v>9.9700000000000006</v>
@@ -6464,19 +6750,23 @@
       <c r="U72" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>149</v>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>24-7</v>
       </c>
       <c r="E73" s="2">
         <v>9.44</v>
@@ -6529,19 +6819,23 @@
       <c r="U73" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>115</v>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>19-13</v>
       </c>
       <c r="E74" s="2">
         <v>9.43</v>
@@ -6594,19 +6888,23 @@
       <c r="U74" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>84</v>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>21-12</v>
       </c>
       <c r="E75" s="2">
         <v>9.2899999999999991</v>
@@ -6659,19 +6957,23 @@
       <c r="U75" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>154</v>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>22-8</v>
       </c>
       <c r="E76" s="2">
         <v>9.17</v>
@@ -6724,19 +7026,23 @@
       <c r="U76" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>146</v>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>20-12</v>
       </c>
       <c r="E77" s="2">
         <v>9.06</v>
@@ -6789,19 +7095,23 @@
       <c r="U77" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>82</v>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>19-11</v>
       </c>
       <c r="E78" s="2">
         <v>8.8699999999999992</v>
@@ -6854,19 +7164,23 @@
       <c r="U78" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>158</v>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>17-13</v>
       </c>
       <c r="E79" s="2">
         <v>8.59</v>
@@ -6919,19 +7233,23 @@
       <c r="U79" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>161</v>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>20-8</v>
       </c>
       <c r="E80" s="2">
         <v>8.41</v>
@@ -6984,19 +7302,23 @@
       <c r="U80" s="2">
         <v>296</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>163</v>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>22-14</v>
       </c>
       <c r="E81" s="2">
         <v>8.31</v>
@@ -7049,19 +7371,23 @@
       <c r="U81" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>52</v>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>21-11</v>
       </c>
       <c r="E82" s="2">
         <v>8.26</v>
@@ -7114,19 +7440,23 @@
       <c r="U82" s="2">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>93</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>108</v>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>19-15</v>
       </c>
       <c r="E83" s="2">
         <v>7.82</v>
@@ -7179,19 +7509,23 @@
       <c r="U83" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>167</v>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>13-18</v>
       </c>
       <c r="E84" s="2">
         <v>7.6</v>
@@ -7244,19 +7578,23 @@
       <c r="U84" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="3">
-        <v>45248</v>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>11-18</v>
       </c>
       <c r="E85" s="2">
         <v>7.18</v>
@@ -7309,19 +7647,23 @@
       <c r="U85" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>170</v>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>17-15</v>
       </c>
       <c r="E86" s="2">
         <v>7.14</v>
@@ -7374,19 +7716,23 @@
       <c r="U86" s="2">
         <v>247</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>119</v>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>15-16</v>
       </c>
       <c r="E87" s="2">
         <v>6.91</v>
@@ -7439,19 +7785,23 @@
       <c r="U87" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
         <v>172</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>173</v>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>14-14</v>
       </c>
       <c r="E88" s="2">
         <v>6.78</v>
@@ -7504,19 +7854,23 @@
       <c r="U88" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="3">
-        <v>45276</v>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>12-16</v>
       </c>
       <c r="E89" s="2">
         <v>6.61</v>
@@ -7569,19 +7923,23 @@
       <c r="U89" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>176</v>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>15-10</v>
       </c>
       <c r="E90" s="2">
         <v>6.6</v>
@@ -7634,19 +7992,23 @@
       <c r="U90" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>178</v>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>16-13</v>
       </c>
       <c r="E91" s="2">
         <v>6.55</v>
@@ -7699,19 +8061,23 @@
       <c r="U91" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>180</v>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>20-11</v>
       </c>
       <c r="E92" s="2">
         <v>6.47</v>
@@ -7764,19 +8130,23 @@
       <c r="U92" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>182</v>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>16-14</v>
       </c>
       <c r="E93" s="2">
         <v>6.36</v>
@@ -7829,19 +8199,23 @@
       <c r="U93" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>184</v>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>13-13</v>
       </c>
       <c r="E94" s="2">
         <v>6.28</v>
@@ -7894,19 +8268,23 @@
       <c r="U94" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>119</v>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>15-16</v>
       </c>
       <c r="E95" s="2">
         <v>6.19</v>
@@ -7959,19 +8337,23 @@
       <c r="U95" s="2">
         <v>269</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>187</v>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>13-17</v>
       </c>
       <c r="E96" s="2">
         <v>6.18</v>
@@ -8024,19 +8406,23 @@
       <c r="U96" s="2">
         <v>234</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>86</v>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>18-11</v>
       </c>
       <c r="E97" s="2">
         <v>5.87</v>
@@ -8089,19 +8475,23 @@
       <c r="U97" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>190</v>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>16-11</v>
       </c>
       <c r="E98" s="2">
         <v>5.75</v>
@@ -8154,19 +8544,23 @@
       <c r="U98" s="2">
         <v>256</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>153</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>192</v>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>18-10</v>
       </c>
       <c r="E99" s="2">
         <v>5.74</v>
@@ -8219,19 +8613,23 @@
       <c r="U99" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="3">
-        <v>45217</v>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>10-18</v>
       </c>
       <c r="E100" s="2">
         <v>5.44</v>
@@ -8284,19 +8682,23 @@
       <c r="U100" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>194</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>196</v>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>20-9</v>
       </c>
       <c r="E101" s="2">
         <v>5.39</v>
@@ -8349,19 +8751,23 @@
       <c r="U101" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>63</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>198</v>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>14-13</v>
       </c>
       <c r="E102" s="2">
         <v>5.21</v>
@@ -8414,19 +8820,23 @@
       <c r="U102" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V102" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>96</v>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>18-13</v>
       </c>
       <c r="E103" s="2">
         <v>5.01</v>
@@ -8479,19 +8889,23 @@
       <c r="U103" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V103" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>200</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>201</v>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>13-15</v>
       </c>
       <c r="E104" s="2">
         <v>5</v>
@@ -8544,19 +8958,23 @@
       <c r="U104" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V104" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>170</v>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>17-15</v>
       </c>
       <c r="E105" s="2">
         <v>4.99</v>
@@ -8609,19 +9027,23 @@
       <c r="U105" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V105" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>203</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>46</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>96</v>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>18-13</v>
       </c>
       <c r="E106" s="2">
         <v>4.87</v>
@@ -8674,19 +9096,23 @@
       <c r="U106" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V106" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="3">
-        <v>45276</v>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>12-16</v>
       </c>
       <c r="E107" s="2">
         <v>4.6900000000000004</v>
@@ -8739,19 +9165,23 @@
       <c r="U107" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V107" s="3">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>82</v>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>19-11</v>
       </c>
       <c r="E108" s="2">
         <v>4.63</v>
@@ -8804,19 +9234,23 @@
       <c r="U108" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V108" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>207</v>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>15-14</v>
       </c>
       <c r="E109" s="2">
         <v>4.4400000000000004</v>
@@ -8869,19 +9303,23 @@
       <c r="U109" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V109" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="s">
         <v>208</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" t="s">
         <v>106</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>158</v>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>17-13</v>
       </c>
       <c r="E110" s="2">
         <v>4.33</v>
@@ -8934,19 +9372,23 @@
       <c r="U110" s="2">
         <v>223</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V110" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="s">
         <v>209</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>125</v>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>14-15</v>
       </c>
       <c r="E111" s="2">
         <v>4.2300000000000004</v>
@@ -8999,19 +9441,23 @@
       <c r="U111" s="2">
         <v>221</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V111" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="s">
         <v>210</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>180</v>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>20-11</v>
       </c>
       <c r="E112" s="2">
         <v>4.21</v>
@@ -9064,19 +9510,23 @@
       <c r="U112" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V112" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>211</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>212</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>196</v>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>20-9</v>
       </c>
       <c r="E113" s="2">
         <v>4.18</v>
@@ -9129,19 +9579,23 @@
       <c r="U113" s="2">
         <v>306</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V113" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" t="s">
         <v>213</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="3">
-        <v>45279</v>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>12-19</v>
       </c>
       <c r="E114" s="2">
         <v>4.16</v>
@@ -9194,19 +9648,23 @@
       <c r="U114" s="2">
         <v>302</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V114" s="3">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="s">
         <v>214</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>110</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>170</v>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>17-15</v>
       </c>
       <c r="E115" s="2">
         <v>4.1500000000000004</v>
@@ -9259,19 +9717,23 @@
       <c r="U115" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V115" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="s">
         <v>215</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>216</v>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>17-11</v>
       </c>
       <c r="E116" s="2">
         <v>4.09</v>
@@ -9324,19 +9786,23 @@
       <c r="U116" s="2">
         <v>216</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V116" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>217</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>218</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>128</v>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>25-7</v>
       </c>
       <c r="E117" s="2">
         <v>3.99</v>
@@ -9389,19 +9855,23 @@
       <c r="U117" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V117" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" t="s">
         <v>212</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>102</v>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>19-9</v>
       </c>
       <c r="E118" s="2">
         <v>3.98</v>
@@ -9454,19 +9924,23 @@
       <c r="U118" s="2">
         <v>261</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V118" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" t="s">
         <v>220</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>70</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>221</v>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>18-14</v>
       </c>
       <c r="E119" s="2">
         <v>3.85</v>
@@ -9519,19 +9993,23 @@
       <c r="U119" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V119" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" t="s">
         <v>222</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" t="s">
         <v>160</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>192</v>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>18-10</v>
       </c>
       <c r="E120" s="2">
         <v>3.7</v>
@@ -9584,19 +10062,23 @@
       <c r="U120" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V120" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" t="s">
         <v>223</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>224</v>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>13-16</v>
       </c>
       <c r="E121" s="2">
         <v>3.67</v>
@@ -9649,19 +10131,23 @@
       <c r="U121" s="2">
         <v>279</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V121" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" t="s">
         <v>225</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="3">
-        <v>45277</v>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>12-17</v>
       </c>
       <c r="E122" s="2">
         <v>3.54</v>
@@ -9714,19 +10200,23 @@
       <c r="U122" s="2">
         <v>314</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V122" s="3">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>52</v>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>21-11</v>
       </c>
       <c r="E123" s="2">
         <v>3.53</v>
@@ -9779,19 +10269,23 @@
       <c r="U123" s="2">
         <v>218</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V123" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" t="s">
         <v>227</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" t="s">
         <v>93</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>178</v>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>16-13</v>
       </c>
       <c r="E124" s="2">
         <v>3.41</v>
@@ -9844,19 +10338,23 @@
       <c r="U124" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V124" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>228</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" t="s">
         <v>32</v>
       </c>
-      <c r="D125" s="3">
-        <v>45216</v>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>10-17</v>
       </c>
       <c r="E125" s="2">
         <v>3.36</v>
@@ -9909,19 +10407,23 @@
       <c r="U125" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V125" s="3">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" t="s">
         <v>229</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" t="s">
         <v>101</v>
       </c>
-      <c r="D126" s="3">
-        <v>45248</v>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>11-18</v>
       </c>
       <c r="E126" s="2">
         <v>3.34</v>
@@ -9974,19 +10476,23 @@
       <c r="U126" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V126" s="3">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>230</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" t="s">
         <v>70</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>158</v>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>17-13</v>
       </c>
       <c r="E127" s="2">
         <v>3.2</v>
@@ -10039,19 +10545,23 @@
       <c r="U127" s="2">
         <v>254</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V127" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" t="s">
         <v>231</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" t="s">
         <v>60</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>224</v>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>13-16</v>
       </c>
       <c r="E128" s="2">
         <v>3.17</v>
@@ -10104,19 +10614,23 @@
       <c r="U128" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V128" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" t="s">
         <v>232</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" t="s">
         <v>24</v>
       </c>
-      <c r="D129" s="3">
-        <v>45248</v>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>11-18</v>
       </c>
       <c r="E129" s="2">
         <v>3.15</v>
@@ -10169,19 +10683,23 @@
       <c r="U129" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V129" s="3">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" t="s">
         <v>233</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>201</v>
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>13-15</v>
       </c>
       <c r="E130" s="2">
         <v>3.07</v>
@@ -10234,19 +10752,23 @@
       <c r="U130" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V130" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>234</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>41</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>158</v>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">TEXT(V131, "mm-dd")</f>
+        <v>17-13</v>
       </c>
       <c r="E131" s="2">
         <v>3</v>
@@ -10299,19 +10821,23 @@
       <c r="U131" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V131" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" t="s">
         <v>235</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" t="s">
         <v>236</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>192</v>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>18-10</v>
       </c>
       <c r="E132" s="2">
         <v>2.97</v>
@@ -10364,19 +10890,23 @@
       <c r="U132" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V132" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" t="s">
         <v>237</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>187</v>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>13-17</v>
       </c>
       <c r="E133" s="2">
         <v>2.94</v>
@@ -10429,19 +10959,23 @@
       <c r="U133" s="2">
         <v>315</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V133" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" t="s">
         <v>238</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" t="s">
         <v>137</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>239</v>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>19-10</v>
       </c>
       <c r="E134" s="2">
         <v>2.67</v>
@@ -10494,19 +11028,23 @@
       <c r="U134" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V134" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" t="s">
         <v>240</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>216</v>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>17-11</v>
       </c>
       <c r="E135" s="2">
         <v>2.67</v>
@@ -10559,19 +11097,23 @@
       <c r="U135" s="2">
         <v>305</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V135" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" t="s">
         <v>241</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" t="s">
         <v>242</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>82</v>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>19-11</v>
       </c>
       <c r="E136" s="2">
         <v>2.6</v>
@@ -10624,19 +11166,23 @@
       <c r="U136" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V136" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>243</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>160</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>244</v>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>14-12</v>
       </c>
       <c r="E137" s="2">
         <v>2.5499999999999998</v>
@@ -10689,19 +11235,23 @@
       <c r="U137" s="2">
         <v>284</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V137" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" t="s">
         <v>245</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="3">
-        <v>45158</v>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>08-20</v>
       </c>
       <c r="E138" s="2">
         <v>2.5299999999999998</v>
@@ -10754,19 +11304,23 @@
       <c r="U138" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V138" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>246</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>160</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>173</v>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>14-14</v>
       </c>
       <c r="E139" s="2">
         <v>2.36</v>
@@ -10819,19 +11373,23 @@
       <c r="U139" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V139" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>167</v>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>13-18</v>
       </c>
       <c r="E140" s="2">
         <v>2.15</v>
@@ -10884,19 +11442,23 @@
       <c r="U140" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V140" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>248</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" t="s">
         <v>110</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>249</v>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>17-14</v>
       </c>
       <c r="E141" s="2">
         <v>2.14</v>
@@ -10949,19 +11511,23 @@
       <c r="U141" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V141" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>250</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" t="s">
         <v>98</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>224</v>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>13-16</v>
       </c>
       <c r="E142" s="2">
         <v>2.13</v>
@@ -11014,19 +11580,23 @@
       <c r="U142" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V142" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>251</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="3">
-        <v>45217</v>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>10-18</v>
       </c>
       <c r="E143" s="2">
         <v>2.1</v>
@@ -11079,19 +11649,23 @@
       <c r="U143" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V143" s="3">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" t="s">
         <v>252</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" t="s">
         <v>106</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>178</v>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>16-13</v>
       </c>
       <c r="E144" s="2">
         <v>1.91</v>
@@ -11144,19 +11718,23 @@
       <c r="U144" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V144" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>253</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" t="s">
         <v>236</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>190</v>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>16-11</v>
       </c>
       <c r="E145" s="2">
         <v>1.76</v>
@@ -11209,19 +11787,23 @@
       <c r="U145" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V145" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" t="s">
         <v>254</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>255</v>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>15-12</v>
       </c>
       <c r="E146" s="2">
         <v>1.47</v>
@@ -11274,19 +11856,23 @@
       <c r="U146" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V146" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>256</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>158</v>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>17-13</v>
       </c>
       <c r="E147" s="2">
         <v>1.35</v>
@@ -11339,19 +11925,23 @@
       <c r="U147" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V147" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" t="s">
         <v>257</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" t="s">
         <v>60</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>258</v>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>15-17</v>
       </c>
       <c r="E148" s="2">
         <v>1.32</v>
@@ -11404,19 +11994,23 @@
       <c r="U148" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V148" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>259</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>260</v>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>21-10</v>
       </c>
       <c r="E149" s="2">
         <v>1.0900000000000001</v>
@@ -11469,19 +12063,23 @@
       <c r="U149" s="2">
         <v>322</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V149" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" t="s">
         <v>261</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" t="s">
         <v>242</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>262</v>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>16-12</v>
       </c>
       <c r="E150" s="2">
         <v>0.98</v>
@@ -11534,19 +12132,23 @@
       <c r="U150" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V150" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>263</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" t="s">
         <v>264</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>265</v>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>27-5</v>
       </c>
       <c r="E151" s="2">
         <v>0.93</v>
@@ -11599,19 +12201,23 @@
       <c r="U151" s="2">
         <v>271</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V151" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" t="s">
         <v>266</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" t="s">
         <v>160</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>267</v>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>13-12</v>
       </c>
       <c r="E152" s="2">
         <v>0.66</v>
@@ -11664,19 +12270,23 @@
       <c r="U152" s="2">
         <v>294</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V152" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" t="s">
         <v>110</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>269</v>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>15-15</v>
       </c>
       <c r="E153" s="2">
         <v>0.61</v>
@@ -11729,19 +12339,23 @@
       <c r="U153" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V153" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" t="s">
         <v>270</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" t="s">
         <v>41</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>182</v>
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>16-14</v>
       </c>
       <c r="E154" s="2">
         <v>0.4</v>
@@ -11794,19 +12408,23 @@
       <c r="U154" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V154" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>271</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" t="s">
         <v>212</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>216</v>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>17-11</v>
       </c>
       <c r="E155" s="2">
         <v>0.35</v>
@@ -11859,19 +12477,23 @@
       <c r="U155" s="2">
         <v>272</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V155" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>272</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" t="s">
         <v>137</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>273</v>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>14-16</v>
       </c>
       <c r="E156" s="2">
         <v>0.32</v>
@@ -11924,19 +12546,23 @@
       <c r="U156" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V156" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>274</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="3">
-        <v>45275</v>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>12-15</v>
       </c>
       <c r="E157" s="2">
         <v>0.21</v>
@@ -11989,19 +12615,23 @@
       <c r="U157" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V157" s="3">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>275</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" t="s">
         <v>242</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>192</v>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>18-10</v>
       </c>
       <c r="E158" s="2">
         <v>0.15</v>
@@ -12054,19 +12684,23 @@
       <c r="U158" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V158" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>276</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" t="s">
         <v>236</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>277</v>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>15-13</v>
       </c>
       <c r="E159" s="2">
         <v>-0.02</v>
@@ -12119,19 +12753,23 @@
       <c r="U159" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V159" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>278</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" t="s">
         <v>153</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>244</v>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>14-12</v>
       </c>
       <c r="E160" s="2">
         <v>-0.06</v>
@@ -12184,19 +12822,23 @@
       <c r="U160" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V160" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>279</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" t="s">
         <v>195</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>239</v>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>19-10</v>
       </c>
       <c r="E161" s="2">
         <v>-0.18</v>
@@ -12249,19 +12891,23 @@
       <c r="U161" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V161" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" t="s">
         <v>280</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" t="s">
         <v>98</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>281</v>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>13-14</v>
       </c>
       <c r="E162" s="2">
         <v>-0.21</v>
@@ -12314,19 +12960,23 @@
       <c r="U162" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V162" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>282</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" t="s">
         <v>283</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>140</v>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>18-15</v>
       </c>
       <c r="E163" s="2">
         <v>-0.24</v>
@@ -12379,19 +13029,23 @@
       <c r="U163" s="2">
         <v>246</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V163" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" t="s">
         <v>284</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" t="s">
         <v>106</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>216</v>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>17-11</v>
       </c>
       <c r="E164" s="2">
         <v>-0.33</v>
@@ -12444,19 +13098,23 @@
       <c r="U164" s="2">
         <v>303</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V164" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" t="s">
         <v>137</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>224</v>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>13-16</v>
       </c>
       <c r="E165" s="2">
         <v>-0.43</v>
@@ -12509,19 +13167,23 @@
       <c r="U165" s="2">
         <v>252</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V165" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" t="s">
         <v>286</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="3">
-        <v>45186</v>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>09-17</v>
       </c>
       <c r="E166" s="2">
         <v>-0.45</v>
@@ -12574,19 +13236,23 @@
       <c r="U166" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V166" s="3">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>287</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" t="s">
         <v>41</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>269</v>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>15-15</v>
       </c>
       <c r="E167" s="2">
         <v>-0.55000000000000004</v>
@@ -12639,19 +13305,23 @@
       <c r="U167" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V167" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" t="s">
         <v>288</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" t="s">
         <v>289</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>290</v>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>16-10</v>
       </c>
       <c r="E168" s="2">
         <v>-0.62</v>
@@ -12704,19 +13374,23 @@
       <c r="U168" s="2">
         <v>194</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V168" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>291</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" t="s">
         <v>148</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>292</v>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>15-11</v>
       </c>
       <c r="E169" s="2">
         <v>-0.91</v>
@@ -12769,19 +13443,23 @@
       <c r="U169" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V169" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" t="s">
         <v>293</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" t="s">
         <v>106</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>201</v>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>13-15</v>
       </c>
       <c r="E170" s="2">
         <v>-0.96</v>
@@ -12834,19 +13512,23 @@
       <c r="U170" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V170" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" t="s">
         <v>294</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" t="s">
         <v>15</v>
       </c>
-      <c r="D171" s="3">
-        <v>45188</v>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>09-19</v>
       </c>
       <c r="E171" s="2">
         <v>-0.96</v>
@@ -12899,19 +13581,23 @@
       <c r="U171" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V171" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>295</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" t="s">
         <v>160</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>281</v>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>13-14</v>
       </c>
       <c r="E172" s="2">
         <v>-1.01</v>
@@ -12964,19 +13650,23 @@
       <c r="U172" s="2">
         <v>213</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V172" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>296</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" t="s">
         <v>98</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>173</v>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>14-14</v>
       </c>
       <c r="E173" s="2">
         <v>-1.1499999999999999</v>
@@ -13029,19 +13719,23 @@
       <c r="U173" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V173" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" t="s">
         <v>297</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" t="s">
         <v>137</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>125</v>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>14-15</v>
       </c>
       <c r="E174" s="2">
         <v>-1.21</v>
@@ -13094,19 +13788,23 @@
       <c r="U174" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V174" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" t="s">
         <v>298</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" t="s">
         <v>212</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>299</v>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>17-19</v>
       </c>
       <c r="E175" s="2">
         <v>-1.21</v>
@@ -13159,19 +13857,23 @@
       <c r="U175" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V175" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" t="s">
         <v>110</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>125</v>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>14-15</v>
       </c>
       <c r="E176" s="2">
         <v>-1.41</v>
@@ -13224,19 +13926,23 @@
       <c r="U176" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V176" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" t="s">
         <v>301</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" t="s">
         <v>137</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>173</v>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>14-14</v>
       </c>
       <c r="E177" s="2">
         <v>-1.45</v>
@@ -13289,19 +13995,23 @@
       <c r="U177" s="2">
         <v>192</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V177" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" t="s">
         <v>302</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" t="s">
         <v>153</v>
       </c>
-      <c r="D178" s="3">
-        <v>45277</v>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>12-17</v>
       </c>
       <c r="E178" s="2">
         <v>-1.48</v>
@@ -13354,19 +14064,23 @@
       <c r="U178" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V178" s="3">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" t="s">
         <v>303</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" t="s">
         <v>110</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>125</v>
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>14-15</v>
       </c>
       <c r="E179" s="2">
         <v>-1.49</v>
@@ -13419,19 +14133,23 @@
       <c r="U179" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V179" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" t="s">
         <v>304</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" t="s">
         <v>242</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>207</v>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>15-14</v>
       </c>
       <c r="E180" s="2">
         <v>-1.49</v>
@@ -13484,19 +14202,23 @@
       <c r="U180" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V180" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" t="s">
         <v>305</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" t="s">
         <v>212</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>221</v>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>18-14</v>
       </c>
       <c r="E181" s="2">
         <v>-1.64</v>
@@ -13549,19 +14271,23 @@
       <c r="U181" s="2">
         <v>209</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V181" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" t="s">
         <v>306</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" t="s">
         <v>101</v>
       </c>
-      <c r="D182" s="3">
-        <v>45188</v>
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>09-19</v>
       </c>
       <c r="E182" s="2">
         <v>-1.64</v>
@@ -13614,19 +14340,23 @@
       <c r="U182" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V182" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" t="s">
         <v>307</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" t="s">
         <v>153</v>
       </c>
-      <c r="D183" s="3">
-        <v>45246</v>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>11-16</v>
       </c>
       <c r="E183" s="2">
         <v>-1.66</v>
@@ -13679,19 +14409,23 @@
       <c r="U183" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V183" s="3">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" t="s">
         <v>308</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" t="s">
         <v>15</v>
       </c>
-      <c r="D184" s="3">
-        <v>45217</v>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>10-18</v>
       </c>
       <c r="E184" s="2">
         <v>-1.78</v>
@@ -13744,19 +14478,23 @@
       <c r="U184" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V184" s="3">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>309</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="3">
-        <v>45278</v>
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>12-18</v>
       </c>
       <c r="E185" s="2">
         <v>-1.84</v>
@@ -13809,19 +14547,23 @@
       <c r="U185" s="2">
         <v>248</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V185" s="3">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" t="s">
         <v>310</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" t="s">
         <v>242</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>262</v>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>16-12</v>
       </c>
       <c r="E186" s="2">
         <v>-1.98</v>
@@ -13874,19 +14616,23 @@
       <c r="U186" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V186" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" t="s">
         <v>311</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" t="s">
         <v>41</v>
       </c>
-      <c r="D187" s="3">
-        <v>45276</v>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>12-16</v>
       </c>
       <c r="E187" s="2">
         <v>-2</v>
@@ -13939,19 +14685,23 @@
       <c r="U187" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V187" s="3">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" t="s">
         <v>312</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" t="s">
         <v>195</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>78</v>
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>19-12</v>
       </c>
       <c r="E188" s="2">
         <v>-2</v>
@@ -14004,19 +14754,23 @@
       <c r="U188" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V188" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" t="s">
         <v>313</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" t="s">
         <v>93</v>
       </c>
-      <c r="D189" s="3">
-        <v>45277</v>
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>12-17</v>
       </c>
       <c r="E189" s="2">
         <v>-2.21</v>
@@ -14069,19 +14823,23 @@
       <c r="U189" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V189" s="3">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" t="s">
         <v>314</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" t="s">
         <v>93</v>
       </c>
-      <c r="D190" s="3">
-        <v>45191</v>
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>09-22</v>
       </c>
       <c r="E190" s="2">
         <v>-2.36</v>
@@ -14134,19 +14892,23 @@
       <c r="U190" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V190" s="3">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" t="s">
         <v>315</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" t="s">
         <v>316</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>317</v>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>21-8</v>
       </c>
       <c r="E191" s="2">
         <v>-2.41</v>
@@ -14199,19 +14961,23 @@
       <c r="U191" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V191" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" t="s">
         <v>318</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" t="s">
         <v>242</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>91</v>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>18-12</v>
       </c>
       <c r="E192" s="2">
         <v>-2.5</v>
@@ -14264,19 +15030,23 @@
       <c r="U192" s="2">
         <v>267</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V192" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" t="s">
         <v>319</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" t="s">
         <v>46</v>
       </c>
-      <c r="D193" s="3">
-        <v>45127</v>
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>07-20</v>
       </c>
       <c r="E193" s="2">
         <v>-2.62</v>
@@ -14329,19 +15099,23 @@
       <c r="U193" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V193" s="3">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" t="s">
         <v>320</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="3">
-        <v>45276</v>
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>12-16</v>
       </c>
       <c r="E194" s="2">
         <v>-2.66</v>
@@ -14394,19 +15168,23 @@
       <c r="U194" s="2">
         <v>286</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V194" s="3">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>321</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" t="s">
         <v>316</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>34</v>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="3">TEXT(V195, "mm-dd")</f>
+        <v>22-10</v>
       </c>
       <c r="E195" s="2">
         <v>-2.74</v>
@@ -14459,19 +15237,23 @@
       <c r="U195" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V195" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" t="s">
         <v>322</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" t="s">
         <v>289</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>323</v>
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>13-8</v>
       </c>
       <c r="E196" s="2">
         <v>-2.84</v>
@@ -14524,19 +15306,23 @@
       <c r="U196" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V196" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" t="s">
         <v>324</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" t="s">
         <v>325</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>273</v>
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>14-16</v>
       </c>
       <c r="E197" s="2">
         <v>-2.88</v>
@@ -14589,19 +15375,23 @@
       <c r="U197" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V197" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" t="s">
         <v>326</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" t="s">
         <v>148</v>
       </c>
-      <c r="D198" s="3">
-        <v>45248</v>
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>11-18</v>
       </c>
       <c r="E198" s="2">
         <v>-2.98</v>
@@ -14654,19 +15444,23 @@
       <c r="U198" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V198" s="3">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" t="s">
         <v>327</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" t="s">
         <v>24</v>
       </c>
-      <c r="D199" s="3">
-        <v>45128</v>
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>07-21</v>
       </c>
       <c r="E199" s="2">
         <v>-3.16</v>
@@ -14719,19 +15513,23 @@
       <c r="U199" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V199" s="3">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" t="s">
         <v>328</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" t="s">
         <v>264</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>239</v>
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>19-10</v>
       </c>
       <c r="E200" s="2">
         <v>-3.17</v>
@@ -14784,19 +15582,23 @@
       <c r="U200" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V200" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" t="s">
         <v>329</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" t="s">
         <v>60</v>
       </c>
-      <c r="D201" s="3">
-        <v>45276</v>
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>12-16</v>
       </c>
       <c r="E201" s="2">
         <v>-3.19</v>
@@ -14849,19 +15651,23 @@
       <c r="U201" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V201" s="3">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" t="s">
         <v>330</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" t="s">
         <v>195</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>173</v>
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>14-14</v>
       </c>
       <c r="E202" s="2">
         <v>-3.21</v>
@@ -14914,19 +15720,23 @@
       <c r="U202" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V202" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" t="s">
         <v>331</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" t="s">
         <v>98</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>201</v>
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>13-15</v>
       </c>
       <c r="E203" s="2">
         <v>-3.38</v>
@@ -14979,19 +15789,23 @@
       <c r="U203" s="2">
         <v>231</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V203" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" t="s">
         <v>332</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" t="s">
         <v>93</v>
       </c>
-      <c r="D204" s="3">
-        <v>45218</v>
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>10-19</v>
       </c>
       <c r="E204" s="2">
         <v>-3.43</v>
@@ -15044,19 +15858,23 @@
       <c r="U204" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V204" s="3">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" t="s">
         <v>333</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" t="s">
         <v>41</v>
       </c>
-      <c r="D205" s="3">
-        <v>45157</v>
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>08-19</v>
       </c>
       <c r="E205" s="2">
         <v>-3.52</v>
@@ -15109,19 +15927,23 @@
       <c r="U205" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V205" s="3">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" t="s">
         <v>334</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" t="s">
         <v>127</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>290</v>
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>16-10</v>
       </c>
       <c r="E206" s="2">
         <v>-3.69</v>
@@ -15174,19 +15996,23 @@
       <c r="U206" s="2">
         <v>312</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V206" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" t="s">
         <v>335</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" t="s">
         <v>283</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>91</v>
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>18-12</v>
       </c>
       <c r="E207" s="2">
         <v>-4.01</v>
@@ -15239,19 +16065,23 @@
       <c r="U207" s="2">
         <v>239</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V207" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" t="s">
         <v>336</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" t="s">
         <v>70</v>
       </c>
-      <c r="D208" s="3">
-        <v>45190</v>
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>09-21</v>
       </c>
       <c r="E208" s="2">
         <v>-4.25</v>
@@ -15304,19 +16134,23 @@
       <c r="U208" s="2">
         <v>290</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V208" s="3">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" t="s">
         <v>337</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" t="s">
         <v>212</v>
       </c>
-      <c r="D209" s="3">
-        <v>45277</v>
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>12-17</v>
       </c>
       <c r="E209" s="2">
         <v>-4.3</v>
@@ -15369,19 +16203,23 @@
       <c r="U209" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V209" s="3">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" t="s">
         <v>338</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" t="s">
         <v>289</v>
       </c>
-      <c r="D210" s="3">
-        <v>45212</v>
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>10-13</v>
       </c>
       <c r="E210" s="2">
         <v>-4.4000000000000004</v>
@@ -15434,19 +16272,23 @@
       <c r="U210" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V210" s="3">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" t="s">
         <v>339</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" t="s">
         <v>236</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>125</v>
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>14-15</v>
       </c>
       <c r="E211" s="2">
         <v>-4.51</v>
@@ -15499,19 +16341,23 @@
       <c r="U211" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V211" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" t="s">
         <v>340</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" t="s">
         <v>63</v>
       </c>
-      <c r="D212" s="3">
-        <v>45275</v>
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>12-15</v>
       </c>
       <c r="E212" s="2">
         <v>-4.55</v>
@@ -15564,19 +16410,23 @@
       <c r="U212" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V212" s="3">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" t="s">
         <v>341</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" t="s">
         <v>110</v>
       </c>
-      <c r="D213" s="3">
-        <v>45189</v>
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>09-20</v>
       </c>
       <c r="E213" s="2">
         <v>-4.59</v>
@@ -15629,19 +16479,23 @@
       <c r="U213" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V213" s="3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" t="s">
         <v>342</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" t="s">
         <v>19</v>
       </c>
-      <c r="D214" s="3">
-        <v>45160</v>
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>08-22</v>
       </c>
       <c r="E214" s="2">
         <v>-4.7300000000000004</v>
@@ -15694,19 +16548,23 @@
       <c r="U214" s="2">
         <v>174</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V214" s="3">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" t="s">
         <v>343</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" t="s">
         <v>60</v>
       </c>
-      <c r="D215" s="3">
-        <v>45158</v>
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>08-20</v>
       </c>
       <c r="E215" s="2">
         <v>-4.78</v>
@@ -15759,19 +16617,23 @@
       <c r="U215" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V215" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" t="s">
         <v>344</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" t="s">
         <v>106</v>
       </c>
-      <c r="D216" s="3">
-        <v>45185</v>
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>09-16</v>
       </c>
       <c r="E216" s="2">
         <v>-4.82</v>
@@ -15824,19 +16686,23 @@
       <c r="U216" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V216" s="3">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" t="s">
         <v>345</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" t="s">
         <v>32</v>
       </c>
-      <c r="D217" s="3">
-        <v>45098</v>
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>06-21</v>
       </c>
       <c r="E217" s="2">
         <v>-4.9400000000000004</v>
@@ -15889,19 +16755,23 @@
       <c r="U217" s="2">
         <v>304</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V217" s="3">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" t="s">
         <v>346</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" t="s">
         <v>242</v>
       </c>
-      <c r="D218" s="3">
-        <v>45247</v>
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>11-17</v>
       </c>
       <c r="E218" s="2">
         <v>-5</v>
@@ -15954,19 +16824,23 @@
       <c r="U218" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V218" s="3">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" t="s">
         <v>347</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" t="s">
         <v>212</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>187</v>
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>13-17</v>
       </c>
       <c r="E219" s="2">
         <v>-5.07</v>
@@ -16019,19 +16893,23 @@
       <c r="U219" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V219" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" t="s">
         <v>348</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" t="s">
         <v>325</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>117</v>
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>17-12</v>
       </c>
       <c r="E220" s="2">
         <v>-5.31</v>
@@ -16084,19 +16962,23 @@
       <c r="U220" s="2">
         <v>188</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V220" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" t="s">
         <v>349</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" t="s">
         <v>236</v>
       </c>
-      <c r="D221" s="3">
-        <v>45274</v>
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>12-14</v>
       </c>
       <c r="E221" s="2">
         <v>-5.36</v>
@@ -16149,19 +17031,23 @@
       <c r="U221" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V221" s="3">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" t="s">
         <v>350</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" t="s">
         <v>137</v>
       </c>
-      <c r="D222" s="3">
-        <v>45280</v>
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>12-20</v>
       </c>
       <c r="E222" s="2">
         <v>-5.44</v>
@@ -16214,19 +17100,23 @@
       <c r="U222" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V222" s="3">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" t="s">
         <v>351</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" t="s">
         <v>137</v>
       </c>
-      <c r="D223" s="3">
-        <v>45188</v>
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>09-19</v>
       </c>
       <c r="E223" s="2">
         <v>-5.62</v>
@@ -16279,19 +17169,23 @@
       <c r="U223" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V223" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" t="s">
         <v>352</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" t="s">
         <v>283</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>292</v>
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>15-11</v>
       </c>
       <c r="E224" s="2">
         <v>-5.62</v>
@@ -16344,19 +17238,23 @@
       <c r="U224" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V224" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" t="s">
         <v>353</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" t="s">
         <v>218</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>96</v>
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>18-13</v>
       </c>
       <c r="E225" s="2">
         <v>-5.68</v>
@@ -16409,19 +17307,23 @@
       <c r="U225" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V225" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" t="s">
         <v>354</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" t="s">
         <v>60</v>
       </c>
-      <c r="D226" s="3">
-        <v>45188</v>
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>09-19</v>
       </c>
       <c r="E226" s="2">
         <v>-5.85</v>
@@ -16474,19 +17376,23 @@
       <c r="U226" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V226" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" t="s">
         <v>355</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" t="s">
         <v>63</v>
       </c>
-      <c r="D227" s="3">
-        <v>45158</v>
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>08-20</v>
       </c>
       <c r="E227" s="2">
         <v>-5.85</v>
@@ -16539,19 +17445,23 @@
       <c r="U227" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V227" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" t="s">
         <v>356</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" t="s">
         <v>41</v>
       </c>
-      <c r="D228" s="3">
-        <v>45190</v>
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>09-21</v>
       </c>
       <c r="E228" s="2">
         <v>-5.94</v>
@@ -16604,19 +17514,23 @@
       <c r="U228" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V228" s="3">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" t="s">
         <v>357</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" t="s">
         <v>110</v>
       </c>
-      <c r="D229" s="3">
-        <v>45099</v>
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>06-22</v>
       </c>
       <c r="E229" s="2">
         <v>-6.13</v>
@@ -16669,19 +17583,23 @@
       <c r="U229" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V229" s="3">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" t="s">
         <v>358</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" t="s">
         <v>160</v>
       </c>
-      <c r="D230" s="3">
-        <v>45156</v>
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>08-18</v>
       </c>
       <c r="E230" s="2">
         <v>-6.25</v>
@@ -16734,19 +17652,23 @@
       <c r="U230" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V230" s="3">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" t="s">
         <v>359</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" t="s">
         <v>195</v>
       </c>
-      <c r="D231" s="3">
-        <v>45246</v>
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>11-16</v>
       </c>
       <c r="E231" s="2">
         <v>-6.26</v>
@@ -16799,19 +17721,23 @@
       <c r="U231" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V231" s="3">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>231</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" t="s">
         <v>360</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" t="s">
         <v>264</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>91</v>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>18-12</v>
       </c>
       <c r="E232" s="2">
         <v>-6.33</v>
@@ -16864,19 +17790,23 @@
       <c r="U232" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V232" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" t="s">
         <v>361</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" t="s">
         <v>160</v>
       </c>
-      <c r="D233" s="3">
-        <v>45154</v>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>08-16</v>
       </c>
       <c r="E233" s="2">
         <v>-6.37</v>
@@ -16929,19 +17859,23 @@
       <c r="U233" s="2">
         <v>264</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V233" s="3">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" t="s">
         <v>362</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" t="s">
         <v>148</v>
       </c>
-      <c r="D234" s="3">
-        <v>45276</v>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>12-16</v>
       </c>
       <c r="E234" s="2">
         <v>-6.39</v>
@@ -16994,19 +17928,23 @@
       <c r="U234" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V234" s="3">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" t="s">
         <v>363</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" t="s">
         <v>98</v>
       </c>
-      <c r="D235" s="3">
-        <v>45189</v>
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>09-20</v>
       </c>
       <c r="E235" s="2">
         <v>-6.56</v>
@@ -17059,19 +17997,23 @@
       <c r="U235" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V235" s="3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" t="s">
         <v>364</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" t="s">
         <v>127</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>244</v>
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>14-12</v>
       </c>
       <c r="E236" s="2">
         <v>-6.73</v>
@@ -17124,19 +18066,23 @@
       <c r="U236" s="2">
         <v>318</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V236" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>236</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" t="s">
         <v>365</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" t="s">
         <v>148</v>
       </c>
-      <c r="D237" s="3">
-        <v>45186</v>
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>09-17</v>
       </c>
       <c r="E237" s="2">
         <v>-6.77</v>
@@ -17189,19 +18135,23 @@
       <c r="U237" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V237" s="3">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" t="s">
         <v>366</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" t="s">
         <v>60</v>
       </c>
-      <c r="D238" s="3">
-        <v>45158</v>
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>08-20</v>
       </c>
       <c r="E238" s="2">
         <v>-6.8</v>
@@ -17254,19 +18204,23 @@
       <c r="U238" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V238" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>238</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" t="s">
         <v>367</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" t="s">
         <v>283</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>173</v>
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>14-14</v>
       </c>
       <c r="E239" s="2">
         <v>-6.83</v>
@@ -17319,19 +18273,23 @@
       <c r="U239" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V239" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" t="s">
         <v>368</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" t="s">
         <v>127</v>
       </c>
-      <c r="D240" s="3">
-        <v>45215</v>
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>10-16</v>
       </c>
       <c r="E240" s="2">
         <v>-6.93</v>
@@ -17384,19 +18342,23 @@
       <c r="U240" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V240" s="3">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" t="s">
         <v>369</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" t="s">
         <v>195</v>
       </c>
-      <c r="D241" s="3">
-        <v>45278</v>
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>12-18</v>
       </c>
       <c r="E241" s="2">
         <v>-7.13</v>
@@ -17449,19 +18411,23 @@
       <c r="U241" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V241" s="3">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" t="s">
         <v>370</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" t="s">
         <v>160</v>
       </c>
-      <c r="D242" s="3">
-        <v>45125</v>
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>07-18</v>
       </c>
       <c r="E242" s="2">
         <v>-7.23</v>
@@ -17514,19 +18480,23 @@
       <c r="U242" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V242" s="3">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>242</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" t="s">
         <v>371</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" t="s">
         <v>218</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>277</v>
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>15-13</v>
       </c>
       <c r="E243" s="2">
         <v>-7.34</v>
@@ -17579,19 +18549,23 @@
       <c r="U243" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V243" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>243</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" t="s">
         <v>372</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" t="s">
         <v>264</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>196</v>
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>20-9</v>
       </c>
       <c r="E244" s="2">
         <v>-7.37</v>
@@ -17644,19 +18618,23 @@
       <c r="U244" s="2">
         <v>287</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V244" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>244</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" t="s">
         <v>373</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" t="s">
         <v>160</v>
       </c>
-      <c r="D245" s="3">
-        <v>45125</v>
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>07-18</v>
       </c>
       <c r="E245" s="2">
         <v>-7.7</v>
@@ -17709,19 +18687,23 @@
       <c r="U245" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V245" s="3">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>245</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" t="s">
         <v>374</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" t="s">
         <v>242</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>224</v>
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>13-16</v>
       </c>
       <c r="E246" s="2">
         <v>-7.92</v>
@@ -17774,19 +18756,23 @@
       <c r="U246" s="2">
         <v>327</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V246" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>246</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" t="s">
         <v>375</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" t="s">
         <v>148</v>
       </c>
-      <c r="D247" s="3">
-        <v>45244</v>
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>11-14</v>
       </c>
       <c r="E247" s="2">
         <v>-7.93</v>
@@ -17839,19 +18825,23 @@
       <c r="U247" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V247" s="3">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" t="s">
         <v>376</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" t="s">
         <v>195</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>207</v>
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>15-14</v>
       </c>
       <c r="E248" s="2">
         <v>-8.02</v>
@@ -17904,19 +18894,23 @@
       <c r="U248" s="2">
         <v>263</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V248" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>248</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" t="s">
         <v>377</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" t="s">
         <v>289</v>
       </c>
-      <c r="D249" s="3">
-        <v>45214</v>
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>10-15</v>
       </c>
       <c r="E249" s="2">
         <v>-8.08</v>
@@ -17969,19 +18963,23 @@
       <c r="U249" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V249" s="3">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" t="s">
         <v>378</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" t="s">
         <v>236</v>
       </c>
-      <c r="D250" s="3">
-        <v>45246</v>
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>11-16</v>
       </c>
       <c r="E250" s="2">
         <v>-8.1</v>
@@ -18034,19 +19032,23 @@
       <c r="U250" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V250" s="3">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>250</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" t="s">
         <v>379</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" t="s">
         <v>195</v>
       </c>
-      <c r="D251" s="3">
-        <v>45245</v>
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>11-15</v>
       </c>
       <c r="E251" s="2">
         <v>-8.3699999999999992</v>
@@ -18099,19 +19101,23 @@
       <c r="U251" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V251" s="3">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>251</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" t="s">
         <v>380</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" t="s">
         <v>93</v>
       </c>
-      <c r="D252" s="3">
-        <v>45189</v>
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>09-20</v>
       </c>
       <c r="E252" s="2">
         <v>-8.43</v>
@@ -18164,19 +19170,23 @@
       <c r="U252" s="2">
         <v>262</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V252" s="3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" t="s">
         <v>381</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" t="s">
         <v>382</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>44</v>
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>20-10</v>
       </c>
       <c r="E253" s="2">
         <v>-8.7100000000000009</v>
@@ -18229,19 +19239,23 @@
       <c r="U253" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V253" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>253</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" t="s">
         <v>383</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" t="s">
         <v>153</v>
       </c>
-      <c r="D254" s="3">
-        <v>45125</v>
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>07-18</v>
       </c>
       <c r="E254" s="2">
         <v>-8.86</v>
@@ -18294,19 +19308,23 @@
       <c r="U254" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V254" s="3">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>254</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" t="s">
         <v>384</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" t="s">
         <v>264</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>86</v>
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>18-11</v>
       </c>
       <c r="E255" s="2">
         <v>-8.9600000000000009</v>
@@ -18359,19 +19377,23 @@
       <c r="U255" s="2">
         <v>307</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V255" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" t="s">
         <v>385</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" t="s">
         <v>98</v>
       </c>
-      <c r="D256" s="3">
-        <v>45067</v>
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>05-21</v>
       </c>
       <c r="E256" s="2">
         <v>-9</v>
@@ -18424,19 +19446,23 @@
       <c r="U256" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V256" s="3">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>256</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" t="s">
         <v>386</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" t="s">
         <v>98</v>
       </c>
-      <c r="D257" s="3">
-        <v>45127</v>
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>07-20</v>
       </c>
       <c r="E257" s="2">
         <v>-9.06</v>
@@ -18489,19 +19515,23 @@
       <c r="U257" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V257" s="3">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" t="s">
         <v>387</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" t="s">
         <v>212</v>
       </c>
-      <c r="D258" s="3">
-        <v>45219</v>
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>10-20</v>
       </c>
       <c r="E258" s="2">
         <v>-9.09</v>
@@ -18554,19 +19584,23 @@
       <c r="U258" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V258" s="3">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" t="s">
         <v>388</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" t="s">
         <v>63</v>
       </c>
-      <c r="D259" s="3">
-        <v>45101</v>
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D322" si="4">TEXT(V259, "mm-dd")</f>
+        <v>06-24</v>
       </c>
       <c r="E259" s="2">
         <v>-9.16</v>
@@ -18619,19 +19653,23 @@
       <c r="U259" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V259" s="3">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" t="s">
         <v>389</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" t="s">
         <v>264</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>273</v>
+      <c r="D260" t="str">
+        <f t="shared" si="4"/>
+        <v>14-16</v>
       </c>
       <c r="E260" s="2">
         <v>-9.27</v>
@@ -18684,19 +19722,23 @@
       <c r="U260" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V260" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" t="s">
         <v>390</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" t="s">
         <v>106</v>
       </c>
-      <c r="D261" s="3">
-        <v>45215</v>
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>10-16</v>
       </c>
       <c r="E261" s="2">
         <v>-9.31</v>
@@ -18749,19 +19791,23 @@
       <c r="U261" s="2">
         <v>311</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V261" s="3">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" t="s">
         <v>391</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" t="s">
         <v>195</v>
       </c>
-      <c r="D262" s="3">
-        <v>45275</v>
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>12-15</v>
       </c>
       <c r="E262" s="2">
         <v>-9.4</v>
@@ -18814,19 +19860,23 @@
       <c r="U262" s="2">
         <v>237</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V262" s="3">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>262</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" t="s">
         <v>392</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" t="s">
         <v>382</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>393</v>
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>17-10</v>
       </c>
       <c r="E263" s="2">
         <v>-9.5299999999999994</v>
@@ -18879,19 +19929,23 @@
       <c r="U263" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V263" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>263</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" t="s">
         <v>394</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" t="s">
         <v>325</v>
       </c>
-      <c r="D264" s="3">
-        <v>45274</v>
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>12-14</v>
       </c>
       <c r="E264" s="2">
         <v>-9.6999999999999993</v>
@@ -18944,19 +19998,23 @@
       <c r="U264" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V264" s="3">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>264</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" t="s">
         <v>395</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" t="s">
         <v>63</v>
       </c>
-      <c r="D265" s="3">
-        <v>45158</v>
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>08-20</v>
       </c>
       <c r="E265" s="2">
         <v>-9.86</v>
@@ -19009,19 +20067,23 @@
       <c r="U265" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V265" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>265</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" t="s">
         <v>396</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" t="s">
         <v>110</v>
       </c>
-      <c r="D266" s="3">
-        <v>45128</v>
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>07-21</v>
       </c>
       <c r="E266" s="2">
         <v>-9.89</v>
@@ -19074,19 +20136,23 @@
       <c r="U266" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V266" s="3">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>266</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" t="s">
         <v>397</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" t="s">
         <v>218</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>125</v>
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>14-15</v>
       </c>
       <c r="E267" s="2">
         <v>-10.49</v>
@@ -19139,19 +20205,23 @@
       <c r="U267" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V267" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" t="s">
         <v>398</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" t="s">
         <v>236</v>
       </c>
-      <c r="D268" s="3">
-        <v>45155</v>
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>08-17</v>
       </c>
       <c r="E268" s="2">
         <v>-10.74</v>
@@ -19204,19 +20274,23 @@
       <c r="U268" s="2">
         <v>243</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V268" s="3">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" t="s">
         <v>399</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" t="s">
         <v>242</v>
       </c>
-      <c r="D269" s="3">
-        <v>45185</v>
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>09-16</v>
       </c>
       <c r="E269" s="2">
         <v>-11.01</v>
@@ -19269,19 +20343,23 @@
       <c r="U269" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V269" s="3">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>269</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" t="s">
         <v>400</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" t="s">
         <v>283</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>224</v>
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>13-16</v>
       </c>
       <c r="E270" s="2">
         <v>-11.27</v>
@@ -19334,19 +20412,23 @@
       <c r="U270" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V270" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" t="s">
         <v>401</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" t="s">
         <v>283</v>
       </c>
-      <c r="D271" s="3">
-        <v>45189</v>
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>09-20</v>
       </c>
       <c r="E271" s="2">
         <v>-11.52</v>
@@ -19399,19 +20481,23 @@
       <c r="U271" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V271" s="3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>271</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" t="s">
         <v>402</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" t="s">
         <v>218</v>
       </c>
-      <c r="D272" s="3">
-        <v>45216</v>
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>10-17</v>
       </c>
       <c r="E272" s="2">
         <v>-11.86</v>
@@ -19464,19 +20550,23 @@
       <c r="U272" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V272" s="3">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>272</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" t="s">
         <v>403</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" t="s">
         <v>382</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>91</v>
+      <c r="D273" t="str">
+        <f t="shared" si="4"/>
+        <v>18-12</v>
       </c>
       <c r="E273" s="2">
         <v>-12.62</v>
@@ -19529,19 +20619,23 @@
       <c r="U273" s="2">
         <v>276</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V273" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>273</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" t="s">
         <v>404</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" t="s">
         <v>148</v>
       </c>
-      <c r="D274" s="3">
-        <v>45038</v>
+      <c r="D274" t="str">
+        <f t="shared" si="4"/>
+        <v>04-22</v>
       </c>
       <c r="E274" s="2">
         <v>-12.66</v>
@@ -19594,19 +20688,23 @@
       <c r="U274" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V274" s="3">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>274</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" t="s">
         <v>405</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" t="s">
         <v>316</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>406</v>
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>14-18</v>
       </c>
       <c r="E275" s="2">
         <v>-12.84</v>
@@ -19659,19 +20757,23 @@
       <c r="U275" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V275" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>275</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" t="s">
         <v>407</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" t="s">
         <v>137</v>
       </c>
-      <c r="D276" s="3">
-        <v>45248</v>
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>11-18</v>
       </c>
       <c r="E276" s="2">
         <v>-12.9</v>
@@ -19724,19 +20826,23 @@
       <c r="U276" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V276" s="3">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>276</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" t="s">
         <v>408</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" t="s">
         <v>236</v>
       </c>
-      <c r="D277" s="3">
-        <v>45126</v>
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>07-19</v>
       </c>
       <c r="E277" s="2">
         <v>-13.03</v>
@@ -19789,19 +20895,23 @@
       <c r="U277" s="2">
         <v>324</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V277" s="3">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>277</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" t="s">
         <v>409</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" t="s">
         <v>153</v>
       </c>
-      <c r="D278" s="3">
-        <v>45157</v>
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>08-19</v>
       </c>
       <c r="E278" s="2">
         <v>-13.4</v>
@@ -19854,19 +20964,23 @@
       <c r="U278" s="2">
         <v>265</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V278" s="3">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>278</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" t="s">
         <v>410</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" t="s">
         <v>325</v>
       </c>
-      <c r="D279" s="3">
-        <v>45216</v>
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>10-17</v>
       </c>
       <c r="E279" s="2">
         <v>-13.46</v>
@@ -19919,19 +21033,23 @@
       <c r="U279" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V279" s="3">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>279</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" t="s">
         <v>411</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" t="s">
         <v>316</v>
       </c>
-      <c r="D280" s="3">
-        <v>45128</v>
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>07-21</v>
       </c>
       <c r="E280" s="2">
         <v>-13.5</v>
@@ -19984,19 +21102,23 @@
       <c r="U280" s="2">
         <v>241</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V280" s="3">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>280</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" t="s">
         <v>412</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C281" t="s">
         <v>218</v>
       </c>
-      <c r="D281" s="3">
-        <v>45188</v>
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>09-19</v>
       </c>
       <c r="E281" s="2">
         <v>-13.5</v>
@@ -20049,19 +21171,23 @@
       <c r="U281" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V281" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>281</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" t="s">
         <v>413</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C282" t="s">
         <v>325</v>
       </c>
-      <c r="D282" s="3">
-        <v>45246</v>
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>11-16</v>
       </c>
       <c r="E282" s="2">
         <v>-13.55</v>
@@ -20114,19 +21240,23 @@
       <c r="U282" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V282" s="3">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>282</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" t="s">
         <v>414</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" t="s">
         <v>382</v>
       </c>
-      <c r="D283" s="3">
-        <v>45246</v>
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>11-16</v>
       </c>
       <c r="E283" s="2">
         <v>-13.67</v>
@@ -20179,19 +21309,23 @@
       <c r="U283" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V283" s="3">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>283</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" t="s">
         <v>415</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" t="s">
         <v>316</v>
       </c>
-      <c r="D284" s="3">
-        <v>45278</v>
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>12-18</v>
       </c>
       <c r="E284" s="2">
         <v>-13.91</v>
@@ -20244,19 +21378,23 @@
       <c r="U284" s="2">
         <v>301</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V284" s="3">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" t="s">
         <v>416</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" t="s">
         <v>153</v>
       </c>
-      <c r="D285" s="3">
-        <v>45038</v>
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>04-22</v>
       </c>
       <c r="E285" s="2">
         <v>-14.32</v>
@@ -20309,19 +21447,23 @@
       <c r="U285" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V285" s="3">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>285</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" t="s">
         <v>417</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" t="s">
         <v>218</v>
       </c>
-      <c r="D286" s="3">
-        <v>45277</v>
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>12-17</v>
       </c>
       <c r="E286" s="2">
         <v>-14.58</v>
@@ -20374,19 +21516,23 @@
       <c r="U286" s="2">
         <v>201</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V286" s="3">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>286</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" t="s">
         <v>418</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" t="s">
         <v>70</v>
       </c>
-      <c r="D287" s="3">
-        <v>45039</v>
+      <c r="D287" t="str">
+        <f t="shared" si="4"/>
+        <v>04-23</v>
       </c>
       <c r="E287" s="2">
         <v>-14.67</v>
@@ -20439,19 +21585,23 @@
       <c r="U287" s="2">
         <v>227</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V287" s="3">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>287</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" t="s">
         <v>419</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" t="s">
         <v>316</v>
       </c>
-      <c r="D288" s="3">
-        <v>45216</v>
+      <c r="D288" t="str">
+        <f t="shared" si="4"/>
+        <v>10-17</v>
       </c>
       <c r="E288" s="2">
         <v>-14.87</v>
@@ -20504,19 +21654,23 @@
       <c r="U288" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V288" s="3">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" t="s">
         <v>420</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" t="s">
         <v>218</v>
       </c>
-      <c r="D289" s="3">
-        <v>45218</v>
+      <c r="D289" t="str">
+        <f t="shared" si="4"/>
+        <v>10-19</v>
       </c>
       <c r="E289" s="2">
         <v>-15.02</v>
@@ -20569,19 +21723,23 @@
       <c r="U289" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V289" s="3">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" t="s">
         <v>421</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" t="s">
         <v>283</v>
       </c>
-      <c r="D290" s="3">
-        <v>45215</v>
+      <c r="D290" t="str">
+        <f t="shared" si="4"/>
+        <v>10-16</v>
       </c>
       <c r="E290" s="2">
         <v>-15.11</v>
@@ -20634,19 +21792,23 @@
       <c r="U290" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V290" s="3">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" t="s">
         <v>422</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" t="s">
         <v>264</v>
       </c>
-      <c r="D291" s="3">
-        <v>45278</v>
+      <c r="D291" t="str">
+        <f t="shared" si="4"/>
+        <v>12-18</v>
       </c>
       <c r="E291" s="2">
         <v>-15.17</v>
@@ -20699,19 +21861,23 @@
       <c r="U291" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V291" s="3">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" t="s">
         <v>423</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" t="s">
         <v>289</v>
       </c>
-      <c r="D292" s="3">
-        <v>45006</v>
+      <c r="D292" t="str">
+        <f t="shared" si="4"/>
+        <v>03-21</v>
       </c>
       <c r="E292" s="2">
         <v>-15.26</v>
@@ -20764,19 +21930,23 @@
       <c r="U292" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V292" s="3">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" t="s">
         <v>424</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" t="s">
         <v>316</v>
       </c>
-      <c r="D293" s="3">
-        <v>45188</v>
+      <c r="D293" t="str">
+        <f t="shared" si="4"/>
+        <v>09-19</v>
       </c>
       <c r="E293" s="2">
         <v>-15.37</v>
@@ -20829,19 +21999,23 @@
       <c r="U293" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V293" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" t="s">
         <v>425</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" t="s">
         <v>382</v>
       </c>
-      <c r="D294" s="3">
-        <v>45188</v>
+      <c r="D294" t="str">
+        <f t="shared" si="4"/>
+        <v>09-19</v>
       </c>
       <c r="E294" s="2">
         <v>-15.44</v>
@@ -20894,19 +22068,23 @@
       <c r="U294" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V294" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" t="s">
         <v>426</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" t="s">
         <v>242</v>
       </c>
-      <c r="D295" s="3">
-        <v>45069</v>
+      <c r="D295" t="str">
+        <f t="shared" si="4"/>
+        <v>05-23</v>
       </c>
       <c r="E295" s="2">
         <v>-15.61</v>
@@ -20959,19 +22137,23 @@
       <c r="U295" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V295" s="3">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" t="s">
         <v>427</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" t="s">
         <v>148</v>
       </c>
-      <c r="D296" s="3">
-        <v>45036</v>
+      <c r="D296" t="str">
+        <f t="shared" si="4"/>
+        <v>04-20</v>
       </c>
       <c r="E296" s="2">
         <v>-15.71</v>
@@ -21024,19 +22206,23 @@
       <c r="U296" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V296" s="3">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" t="s">
         <v>428</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" t="s">
         <v>218</v>
       </c>
-      <c r="D297" s="3">
-        <v>45248</v>
+      <c r="D297" t="str">
+        <f t="shared" si="4"/>
+        <v>11-18</v>
       </c>
       <c r="E297" s="2">
         <v>-16.02</v>
@@ -21089,19 +22275,23 @@
       <c r="U297" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V297" s="3">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" t="s">
         <v>429</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" t="s">
         <v>325</v>
       </c>
-      <c r="D298" s="3">
-        <v>45244</v>
+      <c r="D298" t="str">
+        <f t="shared" si="4"/>
+        <v>11-14</v>
       </c>
       <c r="E298" s="2">
         <v>-16.2</v>
@@ -21154,19 +22344,23 @@
       <c r="U298" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V298" s="3">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" t="s">
         <v>430</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C299" t="s">
         <v>283</v>
       </c>
-      <c r="D299" s="3">
-        <v>45039</v>
+      <c r="D299" t="str">
+        <f t="shared" si="4"/>
+        <v>04-23</v>
       </c>
       <c r="E299" s="2">
         <v>-16.21</v>
@@ -21219,19 +22413,23 @@
       <c r="U299" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V299" s="3">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" t="s">
         <v>431</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C300" t="s">
         <v>264</v>
       </c>
-      <c r="D300" s="3">
-        <v>45158</v>
+      <c r="D300" t="str">
+        <f t="shared" si="4"/>
+        <v>08-20</v>
       </c>
       <c r="E300" s="2">
         <v>-16.600000000000001</v>
@@ -21284,19 +22482,23 @@
       <c r="U300" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V300" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" t="s">
         <v>432</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C301" t="s">
         <v>195</v>
       </c>
-      <c r="D301" s="3">
-        <v>45097</v>
+      <c r="D301" t="str">
+        <f t="shared" si="4"/>
+        <v>06-20</v>
       </c>
       <c r="E301" s="2">
         <v>-16.649999999999999</v>
@@ -21349,19 +22551,23 @@
       <c r="U301" s="2">
         <v>229</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V301" s="3">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" t="s">
         <v>433</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C302" t="s">
         <v>242</v>
       </c>
-      <c r="D302" s="3">
-        <v>45126</v>
+      <c r="D302" t="str">
+        <f t="shared" si="4"/>
+        <v>07-19</v>
       </c>
       <c r="E302" s="2">
         <v>-16.73</v>
@@ -21414,19 +22620,23 @@
       <c r="U302" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V302" s="3">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" t="s">
         <v>434</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C303" t="s">
         <v>325</v>
       </c>
-      <c r="D303" s="3">
-        <v>45188</v>
+      <c r="D303" t="str">
+        <f t="shared" si="4"/>
+        <v>09-19</v>
       </c>
       <c r="E303" s="2">
         <v>-17.03</v>
@@ -21479,19 +22689,23 @@
       <c r="U303" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V303" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" t="s">
         <v>435</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C304" t="s">
         <v>127</v>
       </c>
-      <c r="D304" s="3">
-        <v>45038</v>
+      <c r="D304" t="str">
+        <f t="shared" si="4"/>
+        <v>04-22</v>
       </c>
       <c r="E304" s="2">
         <v>-17.45</v>
@@ -21544,19 +22758,23 @@
       <c r="U304" s="2">
         <v>189</v>
       </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V304" s="3">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" t="s">
         <v>436</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C305" t="s">
         <v>127</v>
       </c>
-      <c r="D305" s="3">
-        <v>45156</v>
+      <c r="D305" t="str">
+        <f t="shared" si="4"/>
+        <v>08-18</v>
       </c>
       <c r="E305" s="2">
         <v>-17.66</v>
@@ -21609,19 +22827,23 @@
       <c r="U305" s="2">
         <v>317</v>
       </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V305" s="3">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" t="s">
         <v>437</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" t="s">
         <v>264</v>
       </c>
-      <c r="D306" s="3">
-        <v>45098</v>
+      <c r="D306" t="str">
+        <f t="shared" si="4"/>
+        <v>06-21</v>
       </c>
       <c r="E306" s="2">
         <v>-17.989999999999998</v>
@@ -21674,19 +22896,23 @@
       <c r="U306" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V306" s="3">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" t="s">
         <v>438</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" t="s">
         <v>325</v>
       </c>
-      <c r="D307" s="3">
-        <v>45158</v>
+      <c r="D307" t="str">
+        <f t="shared" si="4"/>
+        <v>08-20</v>
       </c>
       <c r="E307" s="2">
         <v>-18.190000000000001</v>
@@ -21739,19 +22965,23 @@
       <c r="U307" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V307" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" t="s">
         <v>439</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C308" t="s">
         <v>41</v>
       </c>
-      <c r="D308" s="3">
-        <v>45070</v>
+      <c r="D308" t="str">
+        <f t="shared" si="4"/>
+        <v>05-24</v>
       </c>
       <c r="E308" s="2">
         <v>-18.22</v>
@@ -21804,19 +23034,23 @@
       <c r="U308" s="2">
         <v>258</v>
       </c>
-    </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V308" s="3">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" t="s">
         <v>440</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C309" t="s">
         <v>212</v>
       </c>
-      <c r="D309" s="3">
-        <v>45040</v>
+      <c r="D309" t="str">
+        <f t="shared" si="4"/>
+        <v>04-24</v>
       </c>
       <c r="E309" s="2">
         <v>-18.57</v>
@@ -21869,19 +23103,23 @@
       <c r="U309" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V309" s="3">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" t="s">
         <v>441</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C310" t="s">
         <v>382</v>
       </c>
-      <c r="D310" s="3">
-        <v>45157</v>
+      <c r="D310" t="str">
+        <f t="shared" si="4"/>
+        <v>08-19</v>
       </c>
       <c r="E310" s="2">
         <v>-18.91</v>
@@ -21934,19 +23172,23 @@
       <c r="U310" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V310" s="3">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" t="s">
         <v>442</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C311" t="s">
         <v>289</v>
       </c>
-      <c r="D311" s="3">
-        <v>45037</v>
+      <c r="D311" t="str">
+        <f t="shared" si="4"/>
+        <v>04-21</v>
       </c>
       <c r="E311" s="2">
         <v>-19.34</v>
@@ -21999,19 +23241,23 @@
       <c r="U311" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V311" s="3">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" t="s">
         <v>443</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C312" t="s">
         <v>382</v>
       </c>
-      <c r="D312" s="3">
-        <v>45247</v>
+      <c r="D312" t="str">
+        <f t="shared" si="4"/>
+        <v>11-17</v>
       </c>
       <c r="E312" s="2">
         <v>-19.559999999999999</v>
@@ -22064,19 +23310,23 @@
       <c r="U312" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V312" s="3">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" t="s">
         <v>444</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C313" t="s">
         <v>316</v>
       </c>
-      <c r="D313" s="3">
-        <v>45099</v>
+      <c r="D313" t="str">
+        <f t="shared" si="4"/>
+        <v>06-22</v>
       </c>
       <c r="E313" s="2">
         <v>-20.04</v>
@@ -22129,19 +23379,23 @@
       <c r="U313" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V313" s="3">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" t="s">
         <v>445</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C314" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="3">
-        <v>45069</v>
+      <c r="D314" t="str">
+        <f t="shared" si="4"/>
+        <v>05-23</v>
       </c>
       <c r="E314" s="2">
         <v>-20.27</v>
@@ -22194,19 +23448,23 @@
       <c r="U314" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V314" s="3">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" t="s">
         <v>446</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" t="s">
         <v>316</v>
       </c>
-      <c r="D315" s="3">
-        <v>45158</v>
+      <c r="D315" t="str">
+        <f t="shared" si="4"/>
+        <v>08-20</v>
       </c>
       <c r="E315" s="2">
         <v>-20.29</v>
@@ -22259,19 +23517,23 @@
       <c r="U315" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V315" s="3">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" t="s">
         <v>447</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C316" t="s">
         <v>218</v>
       </c>
-      <c r="D316" s="3">
-        <v>45070</v>
+      <c r="D316" t="str">
+        <f t="shared" si="4"/>
+        <v>05-24</v>
       </c>
       <c r="E316" s="2">
         <v>-21.03</v>
@@ -22324,19 +23586,23 @@
       <c r="U316" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V316" s="3">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" t="s">
         <v>448</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C317" t="s">
         <v>218</v>
       </c>
-      <c r="D317" s="3">
-        <v>45010</v>
+      <c r="D317" t="str">
+        <f t="shared" si="4"/>
+        <v>03-25</v>
       </c>
       <c r="E317" s="2">
         <v>-21.23</v>
@@ -22389,19 +23655,23 @@
       <c r="U317" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V317" s="3">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" t="s">
         <v>449</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C318" t="s">
         <v>382</v>
       </c>
-      <c r="D318" s="3">
-        <v>45126</v>
+      <c r="D318" t="str">
+        <f t="shared" si="4"/>
+        <v>07-19</v>
       </c>
       <c r="E318" s="2">
         <v>-21.56</v>
@@ -22454,19 +23724,23 @@
       <c r="U318" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V318" s="3">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" t="s">
         <v>450</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="C319" t="s">
         <v>264</v>
       </c>
-      <c r="D319" s="3">
-        <v>45041</v>
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>04-25</v>
       </c>
       <c r="E319" s="2">
         <v>-22.73</v>
@@ -22519,19 +23793,23 @@
       <c r="U319" s="2">
         <v>289</v>
       </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V319" s="3">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" t="s">
         <v>451</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C320" t="s">
         <v>382</v>
       </c>
-      <c r="D320" s="3">
-        <v>45188</v>
+      <c r="D320" t="str">
+        <f t="shared" si="4"/>
+        <v>09-19</v>
       </c>
       <c r="E320" s="2">
         <v>-23.35</v>
@@ -22584,19 +23862,23 @@
       <c r="U320" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V320" s="3">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" t="s">
         <v>452</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C321" t="s">
         <v>106</v>
       </c>
-      <c r="D321" s="3">
-        <v>44952</v>
+      <c r="D321" t="str">
+        <f t="shared" si="4"/>
+        <v>01-26</v>
       </c>
       <c r="E321" s="2">
         <v>-24.56</v>
@@ -22649,19 +23931,23 @@
       <c r="U321" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V321" s="3">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" t="s">
         <v>453</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C322" t="s">
         <v>264</v>
       </c>
-      <c r="D322" s="3">
-        <v>45068</v>
+      <c r="D322" t="str">
+        <f t="shared" si="4"/>
+        <v>05-22</v>
       </c>
       <c r="E322" s="2">
         <v>-24.88</v>
@@ -22714,19 +24000,23 @@
       <c r="U322" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V322" s="3">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" t="s">
         <v>454</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" t="s">
         <v>325</v>
       </c>
-      <c r="D323" s="3">
-        <v>45009</v>
+      <c r="D323" t="str">
+        <f t="shared" ref="D323:D328" si="5">TEXT(V323, "mm-dd")</f>
+        <v>03-24</v>
       </c>
       <c r="E323" s="2">
         <v>-25.14</v>
@@ -22779,19 +24069,23 @@
       <c r="U323" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V323" s="3">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" t="s">
         <v>455</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C324" t="s">
         <v>195</v>
       </c>
-      <c r="D324" s="3">
-        <v>44951</v>
+      <c r="D324" t="str">
+        <f t="shared" si="5"/>
+        <v>01-25</v>
       </c>
       <c r="E324" s="2">
         <v>-26.22</v>
@@ -22844,19 +24138,23 @@
       <c r="U324" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V324" s="3">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" t="s">
         <v>456</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C325" t="s">
         <v>382</v>
       </c>
-      <c r="D325" s="3">
-        <v>44983</v>
+      <c r="D325" t="str">
+        <f t="shared" si="5"/>
+        <v>02-26</v>
       </c>
       <c r="E325" s="2">
         <v>-28.85</v>
@@ -22909,19 +24207,23 @@
       <c r="U325" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V325" s="3">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" t="s">
         <v>457</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C326" t="s">
         <v>264</v>
       </c>
-      <c r="D326" s="3">
-        <v>45009</v>
+      <c r="D326" t="str">
+        <f t="shared" si="5"/>
+        <v>03-24</v>
       </c>
       <c r="E326" s="2">
         <v>-29.36</v>
@@ -22974,19 +24276,23 @@
       <c r="U326" s="2">
         <v>219</v>
       </c>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V326" s="3">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" t="s">
         <v>458</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C327" t="s">
         <v>289</v>
       </c>
-      <c r="D327" s="3">
-        <v>45039</v>
+      <c r="D327" t="str">
+        <f t="shared" si="5"/>
+        <v>02-23</v>
       </c>
       <c r="E327" s="2">
         <v>-29.95</v>
@@ -23039,19 +24345,23 @@
       <c r="U327" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V327" s="3">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" t="s">
         <v>459</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" t="s">
         <v>289</v>
       </c>
-      <c r="D328" s="3">
-        <v>44981</v>
+      <c r="D328" t="str">
+        <f t="shared" si="5"/>
+        <v>02-24</v>
       </c>
       <c r="E328" s="2">
         <v>-31.15</v>
@@ -23103,6 +24413,9 @@
       </c>
       <c r="U328" s="2">
         <v>175</v>
+      </c>
+      <c r="V328" s="3">
+        <v>44981</v>
       </c>
     </row>
   </sheetData>
